--- a/Recording.xlsx
+++ b/Recording.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="56">
   <si>
     <t>State</t>
   </si>
@@ -143,11 +144,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NerualTextures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现FF++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现FF++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9987-7845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9993-9211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">低于FF++4%  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5开始过拟合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4val98+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1val99+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2val95+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NerualTextures</t>
+    <t>wv1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -155,63 +228,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复现FF++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复现FF++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9987-7845</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9993-9211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">低于FF++4%  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E5开始过拟合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E4val98+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1val99+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2val95+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24mins</t>
+    <t>wv-skip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +264,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,10 +295,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,9 +312,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="14.125" style="2" bestFit="1" customWidth="1"/>
@@ -836,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>20</v>
@@ -854,10 +898,10 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -892,7 +936,7 @@
         <v>31</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>20</v>
@@ -910,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -948,7 +992,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>20</v>
@@ -966,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1001,7 +1045,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -1039,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1057,10 +1101,10 @@
         <v>9818</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>20</v>
@@ -1078,10 +1122,10 @@
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1095,7 +1139,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1113,13 +1157,13 @@
         <v>8638</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="2">
         <v>32</v>
@@ -1134,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1145,13 +1189,13 @@
         <v>112545</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>14</v>
@@ -1159,8 +1203,17 @@
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G14" s="2">
+        <v>9973</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9974</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9999</v>
+      </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="2">
         <v>32</v>
@@ -1180,13 +1233,13 @@
         <v>112546</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -1194,8 +1247,17 @@
       <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G15" s="2">
+        <v>9427</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9439</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9872</v>
+      </c>
       <c r="J15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="2">
         <v>32</v>
@@ -1215,13 +1277,13 @@
         <v>112547</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
@@ -1229,8 +1291,20 @@
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G16" s="2">
+        <v>5317</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5000</v>
+      </c>
       <c r="J16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="M16" s="2">
         <v>32</v>
@@ -1243,6 +1317,168 @@
       </c>
       <c r="P16" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>116852</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>32</v>
+      </c>
+      <c r="N20" s="4">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
